--- a/biology/Botanique/Strate/Strate.xlsx
+++ b/biology/Botanique/Strate/Strate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -514,7 +526,9 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une strate est une couche homogène d'une roche sédimentaire dont l'épaisseur peut varier de quelques millimètres à quelques centaines de mètres. La stratification désigne la disposition des roches en strates. L'homogénéité est relative et fait appel à la différenciation de faciès.
 </t>
@@ -545,7 +559,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voir Strate (botanique) relatif aux étagements végétaux, notamment en forêt.</t>
         </is>
@@ -575,10 +591,12 @@
           <t>Sciences sociales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Strates est une revue de recherche en sciences sociales.
-Strate : terme utilisé en France pour catégoriser les communes, l’administration française utilise également le terme de « groupe de référence » et en définit une liste de 31[1]. Par exemple, la strate de 500 à 2 000 habitants regroupe toutes les communes incluant ce nombre d'habitants[2].</t>
+Strate : terme utilisé en France pour catégoriser les communes, l’administration française utilise également le terme de « groupe de référence » et en définit une liste de 31. Par exemple, la strate de 500 à 2 000 habitants regroupe toutes les communes incluant ce nombre d'habitants.</t>
         </is>
       </c>
     </row>
@@ -606,7 +624,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Strate est un nom de famille  notamment porté par :
 Abigail Strate (née en 2001), sauteuse à ski canadienne.</t>
@@ -637,7 +657,9 @@
           <t>Jeux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En jeu de rôle, une strate (anglais : layer) est un des points du vue du joueur sur la partie en cours.</t>
         </is>
